--- a/mbs-perturbation/chain/svm/chain-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6637806637806637</v>
+        <v>0.0836940836940837</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.808695652173913</v>
+        <v>0.236231884057971</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6028985507246376</v>
+        <v>0.7173913043478262</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4391304347826086</v>
+        <v>0.2101449275362319</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7029010602923645</v>
+        <v>0.2494924399272226</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/chain-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836940836940837</v>
+        <v>0.5686868686868687</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9158249158249158</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.236231884057971</v>
+        <v>0.1421319796954315</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7173913043478262</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2101449275362319</v>
+        <v>0.5487012987012987</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2494924399272226</v>
+        <v>0.5239579014705917</v>
       </c>
     </row>
   </sheetData>
